--- a/pred_ohlcv/54_21/2020-01-15 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-794299.2138339502</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-794299.2138339502</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-793756.2952339503</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-829506.8216339502</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-829506.8216339502</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-829506.8216339502</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-986556.6306339502</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-985848.4807456803</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-985848.4807456803</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-996158.4259456802</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-794113.6343456802</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-788318.6047456802</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-756397.1686456802</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-756397.1686456802</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-768295.4697456802</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-822738.7904456803</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-866303.7174456803</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-865571.1405456803</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-880522.5131229704</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-878013.0667229703</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-878522.4490229704</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-878569.4490229704</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-878569.4490229704</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-878569.4490229704</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-865598.4146229704</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-864093.3328619704</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-859531.7645619704</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-901770.3274518705</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-891770.3274518705</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-891770.3274518705</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-893770.3274518705</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-893349.8060052806</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-868390.5291518706</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-868595.8920984606</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-745432.3571984606</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-747821.3314984606</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-747821.3314984606</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-728328.5726984607</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-738238.4808984606</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-737990.0524984606</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-734082.1501984607</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-727974.4328984607</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>498111.2002995994</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>454538.0965599394</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>488396.7787962994</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>709458.3207962994</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>538621.7069962993</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1288699.003320279</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1518870.284690969</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1553085.785290969</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1639684.935699759</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1636033.850499759</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1566772.888499759</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1566772.888499759</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1531736.416015309</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1573803.570715309</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1573803.570715309</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>1528100.580115309</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1656255.089115309</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>1521842.614515309</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1535150.536415309</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1417312.052115309</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1434613.632285089</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1534367.140215309</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1545265.576342119</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1545265.576342119</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1449808.490342119</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1461042.40879558</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1310726.99719558</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1320159.66008715</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1282156.38097872</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1282156.38097872</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1191719.01887872</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1132809.02827872</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1215559.24017872</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1249508.24407872</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1249508.24407872</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1108607.80437872</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1136841.42207372</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1136831.53517372</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1361902.44185491</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1454067.246854909</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>1904624.189154909</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1897430.881634299</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1866771.350934299</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1927696.568834299</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2032988.021934299</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1988231.8201343</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2019191.22409469</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1970849.691053129</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1906931.544558669</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1907855.340258669</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1907855.340258669</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1914089.288458669</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1914089.288458669</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1950977.643529039</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1916813.643529039</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1930702.466988329</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2183493.309952959</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2223782.731544959</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2223782.731544959</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2188363.926874289</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>2216421.474874289</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2694812.596881699</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2694812.596881699</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2868691.010994839</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2868691.010994839</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3567395.799594839</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3442989.593694839</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3442989.593694839</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3512070.722294839</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3631046.057415579</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3145491.336384008</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3143895.306484008</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3175980.358331708</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3175980.358331708</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3223230.816184008</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3212339.561784008</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3212281.490884008</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3180787.660661328</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3182695.891261328</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3034515.392761327</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3127554.819929737</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3459306.295171507</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3428830.707982127</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>3510659.795127067</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3542896.020404387</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3524468.173534937</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3524468.173534937</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>3558802.455434937</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3528695.841334937</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-64971891.78027196</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-64973299.69017196</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-64958072.77117196</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-64537055.82116408</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-64323355.19696408</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-64323355.19696408</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-64390734.07926407</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-64125577.84886408</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-64075336.84626408</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-64568872.91376408</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-64441751.99656408</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-64534165.16366408</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-64468451.17765478</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-64462946.49235474</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-64469874.68325474</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-64321742.00266408</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-64269391.63696408</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-64148560.73956409</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-64240088.40026409</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-64235284.32306409</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-64214688.10356409</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-64317173.57366409</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-64290581.88118276</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-64295884.96137449</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-64219704.86397449</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-64171442.66247449</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-64124055.64267449</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-64047546.26844387</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-63997708.64374755</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-64032666.12044755</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-64275875.55284755</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-64273525.98884755</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-64518885.12804756</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-63629482.53014755</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-63475290.20154756</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-63478174.09334756</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-63255241.24184756</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-63185852.90144756</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-62435866.10504755</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-62504715.82959767</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-62506317.30219767</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-62545869.76419767</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-62506516.75772889</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-62504129.20012888</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-62512493.29502888</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-62587065.2497501</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-62608453.9169501</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-62659459.2972501</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-62696434.1011501</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-62999557.69813442</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-63104276.75173442</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-63153584.25413442</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-63086585.99100869</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-63086905.78740869</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-62880634.90421099</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-62876527.88451099</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-62881306.48641099</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-62966865.70018573</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-62996835.22998573</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-62997358.45118573</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-62962579.87348573</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-62807768.43938573</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-62807768.43938573</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-62763685.32226091</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-62764512.75096091</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-62806512.75096091</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-62793444.68166091</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-62795628.5816609</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-62798068.22526091</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-62770518.5023609</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-62770518.5023609</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-62758947.4095609</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-62759028.9293609</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-62746410.9434609</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-62780928.20816091</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-62772059.13006091</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-62846875.39546091</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-62795617.28156091</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-62823760.05076091</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-62838010.68436091</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-62802631.12136091</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-62798644.96626745</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-62791656.25417396</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-62839609.40947396</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-62539979.38639709</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-62590992.29549709</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-62590985.58629709</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-62579916.91029709</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-62575083.44389708</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-62466224.92789709</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-62477555.41669708</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-62551601.68319709</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-62499408.09909709</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-62506874.26739709</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-62511071.00209709</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-62509541.11289709</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-62500351.83289709</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-62550016.33859709</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-62530426.03199709</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-62541033.57939709</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-62530176.11579709</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-62537782.24162009</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-62537678.25162008</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-62393947.2020501</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-62237012.40345009</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-62280151.8327501</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-62331137.06005009</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-62302048.62155009</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-62320943.22095009</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-62247482.14905009</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-62247479.56115009</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-62181614.00709818</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-62197546.50339817</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-62187710.92661218</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-62097157.73181218</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-62103488.02171218</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-62043491.00761218</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-62055370.73781218</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-62022785.88321217</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-62072705.14381217</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-62082200.53681217</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-62041410.38061217</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-62044579.58581217</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-62020579.58581217</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-62039536.97211217</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-62005373.9014487</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-62027424.80214871</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-62004919.05209193</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-62014433.05813517</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-62009458.03603517</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-62008319.60628501</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-61992215.48589011</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-61965119.65299011</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-61897576.16719011</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-61886365.62934224</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-61805766.48898919</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-61834596.07609738</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-61824470.94289738</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-61893810.08479738</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-61755571.12079738</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-61431895.66169738</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-60780265.21589738</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-61309620.99019738</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-61186472.57019738</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-61195183.44244402</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-59459725.64364015</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-59927510.1645477</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-59777662.07334623</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-59603198.61170027</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-59219789.74524415</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-58686237.89077856</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-58178083.73709504</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-58391385.54208869</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-58218279.86196163</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XRP ohlcv.xlsx
@@ -9622,7 +9622,7 @@
         <v>498111.2002995994</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>454538.0965599394</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>488396.7787962994</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>757495.6485962993</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>709458.3207962994</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>538621.7069962993</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1288699.003320279</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1518870.284690969</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1553085.785290969</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1639684.935699759</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1636033.850499759</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1566772.888499759</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1566772.888499759</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1531736.416015309</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1573803.570715309</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1573803.570715309</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>1528100.580115309</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1656255.089115309</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>1521842.614515309</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1535150.536415309</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1417312.052115309</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1434613.632285089</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1534367.140215309</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1570448.056815309</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1545265.576342119</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1545265.576342119</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1449808.490342119</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1461042.40879558</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1310726.99719558</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1320159.66008715</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1282156.38097872</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1282156.38097872</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1191719.01887872</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1132809.02827872</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1215559.24017872</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1249508.24407872</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1249508.24407872</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1108607.80437872</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1136841.42207372</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1136831.53517372</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1361902.44185491</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1454067.246854909</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1966866.526754909</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>1904624.189154909</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1897430.881634299</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1866771.350934299</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1927696.568834299</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2032988.021934299</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1988231.8201343</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2019191.22409469</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1970849.691053129</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1906931.544558669</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1907855.340258669</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1907855.340258669</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1914089.288458669</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1914089.288458669</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1950977.643529039</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1916813.643529039</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1930702.466988329</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2183493.309952959</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2223782.731544959</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2223782.731544959</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2188363.926874289</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>2216421.474874289</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2694812.596881699</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2694812.596881699</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2868691.010994839</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2868691.010994839</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3567395.799594839</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3442989.593694839</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3442989.593694839</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3512070.722294839</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3658336.141394839</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3631046.057415579</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3631046.057415579</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3631046.057415579</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3652480.796815579</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3360941.784415579</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3365624.000215579</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3339675.199184009</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3348926.930384009</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3356743.742384009</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3294713.189684009</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3367314.219084009</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3245485.780584008</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3222775.539984008</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3187535.318884008</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3145491.336384008</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3143895.306484008</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3175980.358331708</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3175980.358331708</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3223230.816184008</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3212339.561784008</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3212281.490884008</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3180787.660661328</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3182695.891261328</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3034515.392761327</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3127554.819929737</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3459306.295171507</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3428830.707982127</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>3510659.795127067</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3542896.020404387</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3524468.173534937</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3524468.173534937</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>3558802.455434937</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3528695.841334937</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>3574314.556434937</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>3598936.520834937</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>3585046.745634937</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-64540623.92067864</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-64545546.80767864</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-65005171.5865205</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-64726964.11746408</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-64537055.82116408</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-64323355.19696408</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-64323355.19696408</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-64390734.07926407</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-64064704.24046408</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-64125577.84886408</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-64075336.84626408</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-64660155.59356408</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-64568872.91376408</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-64441751.99656408</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-64534165.16366408</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-64567425.29666408</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-64468451.17765478</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-64462946.49235474</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-64469874.68325474</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-64321742.00266408</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-64177569.20436408</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-64269391.63696408</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-64290895.55526409</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-64280976.69676409</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-64144918.85056409</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-64172430.60446409</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-64131134.89876409</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-64148560.73956409</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-64240088.40026409</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-64235284.32306409</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-64214688.10356409</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-64317173.57366409</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-64290581.88118276</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-64295884.96137449</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-64219704.86397449</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-64171442.66247449</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-64124055.64267449</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-64047546.26844387</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-63997708.64374755</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-64032666.12044755</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-64186567.15884755</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-64275875.55284755</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-64235369.47654755</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-64251674.40814754</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-64273525.98884755</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-64273292.17554755</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-64352633.58064755</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-64407633.31234755</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-64518885.12804756</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-64487855.65654755</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-64161913.11294755</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-63629482.53014755</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-63475290.20154756</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-63478174.09334756</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-63255241.24184756</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-63185852.90144756</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-63147290.83354755</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-63139938.02474756</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-62421959.99654756</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-62435866.10504755</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-62452403.88404755</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-62505027.06719767</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-62504715.82959767</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-62506317.30219767</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-62545869.76419767</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-62484413.11939767</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-62567436.17129767</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-62506516.75772889</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-62502652.04892889</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-62504129.20012888</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-62512493.29502888</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-62480493.29502888</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-62587065.2497501</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-62608453.9169501</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-62659459.2972501</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-62696434.1011501</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-62957884.34963442</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-62999557.69813442</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-63104276.75173442</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-63153584.25413442</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-63089613.39841099</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-63086585.99100869</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-63086905.78740869</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-62880634.90421099</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-62876527.88451099</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-62881306.48641099</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-62966865.70018573</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-62996835.22998573</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-62997358.45118573</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-62962579.87348573</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-62807768.43938573</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-62807768.43938573</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-62763685.32226091</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-62764512.75096091</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-62806512.75096091</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-62793444.68166091</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-62795628.5816609</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-62798068.22526091</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-62770518.5023609</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-62770518.5023609</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-62758947.4095609</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-62759028.9293609</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-62750384.92596091</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-62746410.9434609</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-62758953.30056091</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-62751270.50696091</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-62780928.20816091</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-62776521.04876091</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-62774154.51156091</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-62772059.13006091</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-62846875.39546091</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-62795617.28156091</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-62823760.05076091</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-62838010.68436091</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-62802631.12136091</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-62763249.8870609</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-62798644.96626745</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-62788416.23467396</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-62791656.25417396</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-62839609.40947396</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-62829519.30727396</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-62530959.26787397</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-62539979.38639709</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-62590992.29549709</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-62590985.58629709</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-62579916.91029709</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-62589216.42779709</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-62575083.44389708</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-62536503.41019709</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-62466224.92789709</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-62487931.99769709</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-62477555.41669708</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-62551601.68319709</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-62499408.09909709</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-62506874.26739709</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-62511071.00209709</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-62509541.11289709</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-62501525.64459709</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-62500351.83289709</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-62550016.33859709</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-62530426.03199709</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-62536277.20569709</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-62541033.57939709</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-62530176.11579709</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-62537782.24162009</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-62537678.25162008</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-62393947.2020501</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-62237012.40345009</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-62280151.8327501</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-62307452.30615009</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-62331137.06005009</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-62302048.62155009</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-62320943.22095009</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-62247482.14905009</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-62247479.56115009</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-62267627.36995009</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-62181614.00709818</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-62197546.50339817</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-62180876.85531218</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-62184127.20391218</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-62187710.92661218</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-62097157.73181218</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-62103488.02171218</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-62043491.00761218</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-62055370.73781218</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-62051197.08011217</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-62022785.88321217</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-62073722.14381217</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-62072705.14381217</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-62082200.53681217</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-62041410.38061217</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-62044579.58581217</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-62020579.58581217</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-62039536.97211217</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-61988267.13344871</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-61987388.85324871</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-62005373.9014487</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-62027424.80214871</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-62004919.05209193</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-62014433.05813517</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-62004458.03603517</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-62009458.03603517</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-61997512.35918833</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-61986894.47048502</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-61982210.71548501</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-62008319.60628501</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-61996510.36048501</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-61992215.48589011</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-61965119.65299011</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-61897576.16719011</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-61969132.09250754</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-61893839.64760754</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-61886365.62934224</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-61897340.88923816</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-61805766.48898919</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-61834596.07609738</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-61824470.94289738</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-61893810.08479738</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-61755571.12079738</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-61431895.66169738</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-60780265.21589738</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-61155318.57119066</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-61099563.36479066</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-61099563.36479066</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-60954239.79914498</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-60624334.87839066</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-60221578.08103308</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-59891374.67630009</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-58963520.41662277</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-58477677.76797377</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-58884273.71374015</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-58820078.46654015</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-59099513.56114015</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-59459725.64364015</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-59551958.82804015</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-59211208.02915655</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-59265767.88965655</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-59026968.35294015</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-59112042.21124015</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-59234119.31652375</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-59234119.31652375</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-59284696.97102375</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-59205133.95102375</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-59158646.02302375</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-59199259.63452375</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-59199259.63452375</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-59427331.91382375</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-59233752.31922375</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-59302597.16452374</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-59139492.49392375</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-59338762.17018542</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-58924271.73764708</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-58921741.97704708</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-59103800.43923746</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-60735677.84977577</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-61105887.49737266</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-60656548.05627775</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-60656548.05627775</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-60486942.92257775</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-60525133.64447775</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-60772970.28787775</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-60686043.82417776</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-60781082.08077775</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-60879786.33833428</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-60861783.78953429</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-60861783.78953429</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-60835815.71233428</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-60198369.70953428</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-60182118.3368484</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-60142647.33168174</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-60142647.33168174</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-60142647.33168174</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-60372235.27478174</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-60427766.66907981</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-60507358.06737981</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-60507358.06737981</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-60347640.08407981</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-60380546.02057981</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-60370183.8755798</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-60219833.5435798</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-59654744.13202311</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-59654744.13202311</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-59927510.1645477</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-59927510.1645477</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-59792740.0552477</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-59973119.27567967</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-59863860.33150028</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-59777662.07334623</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-59603198.61170027</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-59219789.74524415</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-58686237.89077856</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-58178083.73709504</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-58391385.54208869</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-58218279.86196163</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
